--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-01T13:19:28+00:00</t>
+    <t>2021-09-01T13:21:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-01T13:21:06+00:00</t>
+    <t>2021-09-14T14:32:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T14:32:44+00:00</t>
+    <t>2021-09-14T14:33:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T14:33:18+00:00</t>
+    <t>2021-09-15T10:06:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-15T10:06:59+00:00</t>
+    <t>2021-09-15T10:19:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-15T10:19:11+00:00</t>
+    <t>2021-09-17T09:55:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T09:55:36+00:00</t>
+    <t>2021-09-17T09:56:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T09:56:14+00:00</t>
+    <t>2021-09-17T10:31:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T10:31:02+00:00</t>
+    <t>2021-09-17T10:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T10:31:57+00:00</t>
+    <t>2021-09-17T16:55:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T16:55:55+00:00</t>
+    <t>2021-09-17T16:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T16:56:25+00:00</t>
+    <t>2021-09-22T12:13:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T12:13:02+00:00</t>
+    <t>2021-09-22T12:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T12:13:26+00:00</t>
+    <t>2021-09-28T15:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T15:53:34+00:00</t>
+    <t>2021-09-28T15:56:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T15:56:03+00:00</t>
+    <t>2021-09-29T08:15:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-29T08:15:04+00:00</t>
+    <t>2021-09-29T08:31:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Identification Typ" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from Identification T" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-29T08:31:05+00:00</t>
+    <t>2021-10-04T14:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T14:35:02+00:00</t>
+    <t>2021-10-04T15:11:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:11:02+00:00</t>
+    <t>2021-10-04T15:40:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:40:49+00:00</t>
+    <t>2021-10-04T15:42:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:42:19+00:00</t>
+    <t>2021-10-05T10:19:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-05T10:19:44+00:00</t>
+    <t>2021-10-12T16:14:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T16:14:04+00:00</t>
+    <t>2021-10-12T16:15:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T16:15:17+00:00</t>
+    <t>2021-10-13T13:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-13T13:46:56+00:00</t>
+    <t>2021-10-14T17:10:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-14T17:10:41+00:00</t>
+    <t>2021-10-14T17:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-14T17:11:38+00:00</t>
+    <t>2021-10-18T09:02:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T09:02:35+00:00</t>
+    <t>2021-10-18T10:54:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T10:54:05+00:00</t>
+    <t>2021-11-12T15:53:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T15:53:21+00:00</t>
+    <t>2021-11-12T16:19:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T16:19:51+00:00</t>
+    <t>2021-11-12T16:20:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T16:20:31+00:00</t>
+    <t>2021-11-15T18:47:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T18:47:56+00:00</t>
+    <t>2021-11-15T18:48:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T18:48:44+00:00</t>
+    <t>2021-11-16T09:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-16T09:50:19+00:00</t>
+    <t>2021-11-22T10:47:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T10:47:57+00:00</t>
+    <t>2021-12-04T14:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:00:22+00:00</t>
+    <t>2021-12-04T14:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:25:43+00:00</t>
+    <t>2021-12-04T14:41:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:41:27+00:00</t>
+    <t>2021-12-08T10:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-identification-types.xlsx
+++ b/ValueSet-patient-identification-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T10:28:46+00:00</t>
+    <t>2021-12-16T15:29:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
